--- a/public/ExamplesImportacion/Ddocumentos.xlsx
+++ b/public/ExamplesImportacion/Ddocumentos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programas\flutter\proyects\ILLAPA\illapaDesig\illapaApi\public\ExamplesImportacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programas\flutter\proyects\ILLAPA\ILLAPA-APIS\public\ExamplesImportacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27220BA-8DD5-46C9-85CB-0382348F5729}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A23000-5C1F-48BF-93E8-D1FCC3F33ACB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22284" windowHeight="13176" xr2:uid="{6F0ACF3F-C7BC-4D8B-8E2A-7CF37D5B1CAC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="11">
   <si>
     <t>PEN</t>
   </si>
@@ -39,15 +39,9 @@
     <t>BOL</t>
   </si>
   <si>
-    <t>FAC</t>
-  </si>
-  <si>
     <t>DNI</t>
   </si>
   <si>
-    <t>RUC</t>
-  </si>
-  <si>
     <t>NUMIDE(NUM, 11)</t>
   </si>
   <si>
@@ -70,9 +64,6 @@
   </si>
   <si>
     <t>IMPORTE(DEC)</t>
-  </si>
-  <si>
-    <t>DOL</t>
   </si>
 </sst>
 </file>
@@ -110,7 +101,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,12 +111,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -145,15 +130,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Comma" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
@@ -471,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B0D4F8-30FF-4500-99E7-152AA40E4AF9}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection sqref="A1:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,33 +474,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3">
         <v>20230001</v>
@@ -543,7 +526,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>20230017</v>
@@ -569,80 +552,366 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>20408000017</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
+        <v>20230015</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>6003</v>
+        <v>3003</v>
       </c>
       <c r="E4" s="3">
-        <v>20190615</v>
+        <v>20190301</v>
       </c>
       <c r="F4" s="3">
-        <v>20190625</v>
+        <v>20190331</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4">
-        <v>6000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>20408000022</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
+        <v>20230002</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>6004</v>
+        <v>3004</v>
       </c>
       <c r="E5" s="3">
-        <v>20190615</v>
+        <v>20190301</v>
       </c>
       <c r="F5" s="3">
-        <v>20190625</v>
+        <v>20190331</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4">
-        <v>6000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>20408000008</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>8002</v>
-      </c>
-      <c r="E6" s="5">
-        <v>20190815</v>
-      </c>
-      <c r="F6" s="5">
-        <v>20190825</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>8000</v>
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>20230006</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3005</v>
+      </c>
+      <c r="E6" s="3">
+        <v>20190301</v>
+      </c>
+      <c r="F6" s="3">
+        <v>20190331</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>20230013</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3006</v>
+      </c>
+      <c r="E7" s="3">
+        <v>20190301</v>
+      </c>
+      <c r="F7" s="3">
+        <v>20190331</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>20230019</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3007</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20190301</v>
+      </c>
+      <c r="F8" s="3">
+        <v>20190331</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3">
+        <v>20230014</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3008</v>
+      </c>
+      <c r="E9" s="3">
+        <v>20190301</v>
+      </c>
+      <c r="F9" s="3">
+        <v>20190331</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3">
+        <v>20230010</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3009</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20190301</v>
+      </c>
+      <c r="F10" s="3">
+        <v>20190331</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3">
+        <v>20230008</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3010</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20190301</v>
+      </c>
+      <c r="F11" s="3">
+        <v>20190331</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3">
+        <v>20230009</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3011</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20190301</v>
+      </c>
+      <c r="F12" s="3">
+        <v>20190331</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>20230001</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>4001</v>
+      </c>
+      <c r="E13">
+        <v>20190401</v>
+      </c>
+      <c r="F13">
+        <v>20190430</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>20230017</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>4002</v>
+      </c>
+      <c r="E14">
+        <v>20190401</v>
+      </c>
+      <c r="F14">
+        <v>20190430</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>20230015</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>4003</v>
+      </c>
+      <c r="E15">
+        <v>20190401</v>
+      </c>
+      <c r="F15">
+        <v>20190430</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>20230002</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>4004</v>
+      </c>
+      <c r="E16">
+        <v>20190401</v>
+      </c>
+      <c r="F16">
+        <v>20190430</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>20230006</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>4005</v>
+      </c>
+      <c r="E17">
+        <v>20190401</v>
+      </c>
+      <c r="F17">
+        <v>20190430</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
